--- a/docs/excel/TLuckyTask.xlsx
+++ b/docs/excel/TLuckyTask.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="225" yWindow="165" windowWidth="27915" windowHeight="12315" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="Mail" sheetId="1" r:id="rId1"/>
+    <sheet name="LuckyTask" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TLuckyTask.xlsx
+++ b/docs/excel/TLuckyTask.xlsx
@@ -269,15 +269,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间整点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11;14;18;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,20 +707,21 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.8984375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.296875" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.796875" customWidth="1"/>
     <col min="8" max="8" width="13.59765625" customWidth="1"/>
     <col min="9" max="9" width="14.59765625" customWidth="1"/>
     <col min="10" max="10" width="13.8984375" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -731,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>34</v>
@@ -814,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>35</v>
@@ -849,7 +850,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5">
         <v>4001</v>
@@ -884,7 +885,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5">
         <v>4101</v>
@@ -919,7 +920,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5">
         <v>4201</v>

--- a/docs/excel/TLuckyTask.xlsx
+++ b/docs/excel/TLuckyTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -158,15 +158,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YesterdayPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreedayPlay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReTake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否多次接取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000;6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,23 +245,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每轮最多接取人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间整点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;14;18;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YesterdayPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreedayPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MaxTake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每轮最多接取人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间整点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11;14;18;21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K281"/>
+  <dimension ref="A1:J281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,24 +713,23 @@
     <col min="8" max="8" width="13.59765625" customWidth="1"/>
     <col min="9" max="9" width="14.59765625" customWidth="1"/>
     <col min="10" max="10" width="13.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
@@ -747,24 +738,21 @@
         <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -779,22 +767,19 @@
         <v>20</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,21 +792,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
@@ -830,27 +815,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5">
         <v>4001</v>
@@ -859,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
@@ -873,19 +855,16 @@
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5">
         <v>4101</v>
@@ -894,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
@@ -908,19 +887,16 @@
       <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5">
         <v>4201</v>
@@ -929,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
@@ -943,62 +919,59 @@
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2749,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TLuckyTask.xlsx
+++ b/docs/excel/TLuckyTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>MaxTake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
